--- a/spec/test_sheets/spec_sheet.xlsx
+++ b/spec/test_sheets/spec_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>target_price</t>
   </si>
@@ -89,64 +89,88 @@
     <t>origin_longitude</t>
   </si>
   <si>
-    <t>destination_latitutde</t>
-  </si>
-  <si>
     <t>destination_longitude</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
-    <t>Stockholm Airport</t>
-  </si>
-  <si>
     <t>Shanghai</t>
   </si>
   <si>
-    <t>Shanghai Airport</t>
-  </si>
-  <si>
-    <t>cargo_item</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>21/07/2018</t>
-  </si>
-  <si>
-    <t>17/07/2018</t>
-  </si>
-  <si>
-    <t>15/07/2018</t>
-  </si>
-  <si>
-    <t>export</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {"on_carriage": {"truck_type": ""}, "pre_carriage":  {"truck_type": ""}}</t>
-  </si>
-  <si>
-    <t>weight_class</t>
-  </si>
-  <si>
     <t>cargo_class</t>
   </si>
   <si>
     <t>size_class</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Gothenburg Port</t>
+  </si>
+  <si>
+    <t>Gothenburg</t>
+  </si>
+  <si>
+    <t>Shanghai Port</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>fcl_40</t>
+  </si>
+  <si>
+    <t>{"on_carriage": {"truck_type": "chassis"}, "pre_carriage":  {"truck_type": ""}}</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>fees</t>
+  </si>
+  <si>
+    <t>{"DOC": {"key": "DOC", "min": "", "name": "Documentation", "value": 695.0, "currency": "SEK", "rate_basis": "PER_BILL", "effective_date": "2018-06-13", "expiration_date": "2019-06-13"}, "HDF": {"value": 295.0, "name": "Harbour Dues", "currency": "SEK", "rate_basis": "PER_CONTAINER", "effective_date": "2018-06-13", "expiration_date": "2019-06-13"}, "HDL": {"key": "HDL", "name": "Handling Fee", "value": 650.0, "currency": "SEK", "rate_basis": "PER_SHIPMENT", "effective_date": "2018-06-13", "expiration_date": "2019-06-13"}, "THC": {"value": 1450.0, "name": "Terminal Handling Charge", "currency": "SEK", "rate_basis": "PER_CONTAINER", "effective_date": "2018-06-13", "expiration_date": "2019-06-13"}, "FDC": {"key": "FDC", "min": "", "name": "Swedish Fairways Due Charge", "value": 80.0, "currency": "SEK", "rate_basis": "PER_CONTAINER", "effective_date": "2018-06-13", "expiration_date": "2019-06-13"}, "ISPS": {"key": "ISPS", "min": "", "name": "ISPS", "value": 15.0, "currency": "EUR", "rate_basis": "PER_CONTAINER", "effective_date": "2018-06-13", "expiration_date": "2019-06-13"}}</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>destination_latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"BAS": {"rate": 1175, "rate_basis": "PER_CONTAINER", "currency": "USD", "min": 1175}} </t>
+  </si>
+  <si>
+    <t>trucking_location</t>
+  </si>
+  <si>
+    <t>{ "geocoded_address": "Norrqvarns Slussområde, 548 93 Lyrestad, Sweden",  "latitude": 58.5274857, "longitude": 13.7413548, "city": "Timmersdala", "zip_code": 54016 }</t>
+  </si>
+  <si>
+    <t>origin_location</t>
+  </si>
+  <si>
+    <t>{ "name": "Shanghai", "latitude":  31.219832454, "longitude":  121.486998052,  "geocoded_address": "Zhoushan, Zhejiang, China", "city": "Shanghai", "zip_code": 20457}</t>
+  </si>
+  <si>
+    <t>extras</t>
+  </si>
+  <si>
+    <t>{"carriage": "on", "modifier": "unit_per_km", "customs_export_paper": false, "consolidate_cargo": false}</t>
+  </si>
+  <si>
+    <t>pre_carriage_location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -183,11 +207,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,6 +507,7 @@
     <col min="7" max="7" width="61" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
@@ -490,14 +516,18 @@
     <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="78.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="139" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,48 +589,63 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="176" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2042.37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
+      <c r="G2" t="s">
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -609,37 +654,52 @@
         <v>100</v>
       </c>
       <c r="L2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>500</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2">
+        <v>31.219832453999999</v>
+      </c>
+      <c r="T2">
+        <v>121.486998052</v>
+      </c>
+      <c r="U2">
+        <v>57.694253000000003</v>
+      </c>
+      <c r="V2">
+        <v>11.854048000000001</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2">
-        <v>59.650855999999997</v>
-      </c>
-      <c r="T2">
-        <v>17.931097000000001</v>
-      </c>
-      <c r="U2">
-        <v>30.626539000000001</v>
-      </c>
-      <c r="V2">
-        <v>122.064958</v>
+      <c r="Y2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
